--- a/Assets/Levels/Level1/Tiles.xlsx
+++ b/Assets/Levels/Level1/Tiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F68B8C3-FFEF-4663-BC43-71B1901E5A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A45F25-258A-4152-8015-8E955098C5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66BFC6A7-1E39-479E-8CEF-70E7C3D6150E}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF63A-C0DA-44B6-8D15-EF4E1E908A5C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,12 +430,13 @@
         <v>200</v>
       </c>
       <c r="D2" s="2">
+        <f>+D1</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">+A2+62</f>
+        <f t="shared" ref="A3:A44" si="0">+A2+62</f>
         <v>124</v>
       </c>
       <c r="B3" s="1">
@@ -445,6 +446,7 @@
         <v>200</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" ref="D3:D44" si="1">+D2</f>
         <v>1</v>
       </c>
     </row>
@@ -460,6 +462,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -475,6 +478,7 @@
         <v>200</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -490,6 +494,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -505,6 +510,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -520,6 +526,7 @@
         <v>200</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -535,6 +542,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -550,6 +558,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -565,6 +574,7 @@
         <v>200</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -580,6 +590,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -595,6 +606,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -610,6 +622,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -625,6 +638,7 @@
         <v>200</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -640,6 +654,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -655,6 +670,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -670,6 +686,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -685,6 +702,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -700,6 +718,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -715,6 +734,7 @@
         <v>200</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -730,6 +750,7 @@
         <v>200</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -745,6 +766,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -760,6 +782,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -775,6 +798,7 @@
         <v>200</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -790,6 +814,7 @@
         <v>200</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -805,6 +830,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -820,6 +846,7 @@
         <v>200</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -835,6 +862,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -850,6 +878,7 @@
         <v>200</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -865,6 +894,7 @@
         <v>200</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -880,6 +910,7 @@
         <v>200</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -895,6 +926,183 @@
         <v>200</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="B34" s="1">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1">
+        <v>200</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>2108</v>
+      </c>
+      <c r="B35" s="1">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1">
+        <v>200</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+      <c r="B36" s="1">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1">
+        <v>200</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>2232</v>
+      </c>
+      <c r="B37" s="1">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1">
+        <v>200</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>2294</v>
+      </c>
+      <c r="B38" s="1">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1">
+        <v>200</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>2356</v>
+      </c>
+      <c r="B39" s="1">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1">
+        <v>200</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>2418</v>
+      </c>
+      <c r="B40" s="1">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1">
+        <v>200</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>2480</v>
+      </c>
+      <c r="B41" s="1">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1">
+        <v>200</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>2542</v>
+      </c>
+      <c r="B42" s="1">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>2604</v>
+      </c>
+      <c r="B43" s="1">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1">
+        <v>200</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>2666</v>
+      </c>
+      <c r="B44" s="1">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1">
+        <v>200</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
